--- a/AAII_Financials/Yearly/ZEAL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEAL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>ZEAL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>42900</v>
+        <v>40800</v>
       </c>
       <c r="E8" s="3">
-        <v>51800</v>
+        <v>49300</v>
       </c>
       <c r="F8" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="E9" s="3">
-        <v>13300</v>
+        <v>12600</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>25500</v>
+        <v>24200</v>
       </c>
       <c r="E10" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="F10" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>81800</v>
+        <v>77800</v>
       </c>
       <c r="E12" s="3">
-        <v>85500</v>
+        <v>81300</v>
       </c>
       <c r="F12" s="3">
-        <v>79900</v>
+        <v>76000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E15" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F15" s="3">
         <v>700</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>197300</v>
+        <v>187600</v>
       </c>
       <c r="E17" s="3">
-        <v>168100</v>
+        <v>159800</v>
       </c>
       <c r="F17" s="3">
-        <v>92300</v>
+        <v>87800</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-154400</v>
+        <v>-146800</v>
       </c>
       <c r="E18" s="3">
-        <v>-116200</v>
+        <v>-110500</v>
       </c>
       <c r="F18" s="3">
-        <v>-86200</v>
+        <v>-82000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
-        <v>-6500</v>
+        <v>-6200</v>
       </c>
       <c r="F20" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1017,14 +1017,14 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-137000</v>
       </c>
       <c r="E21" s="3">
-        <v>-116400</v>
+        <v>-110700</v>
       </c>
       <c r="F21" s="3">
-        <v>-81500</v>
+        <v>-77500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-150600</v>
+        <v>-143300</v>
       </c>
       <c r="E23" s="3">
-        <v>-123200</v>
+        <v>-117100</v>
       </c>
       <c r="F23" s="3">
-        <v>-84600</v>
+        <v>-80500</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E24" s="3">
         <v>1000</v>
       </c>
       <c r="F24" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-149400</v>
+        <v>-142000</v>
       </c>
       <c r="E26" s="3">
-        <v>-124200</v>
+        <v>-118100</v>
       </c>
       <c r="F26" s="3">
-        <v>-83800</v>
+        <v>-79700</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-149400</v>
+        <v>-142000</v>
       </c>
       <c r="E27" s="3">
-        <v>-124200</v>
+        <v>-118100</v>
       </c>
       <c r="F27" s="3">
-        <v>-83800</v>
+        <v>-79700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="F32" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-149400</v>
+        <v>-142000</v>
       </c>
       <c r="E33" s="3">
-        <v>-124200</v>
+        <v>-118100</v>
       </c>
       <c r="F33" s="3">
-        <v>-83800</v>
+        <v>-79700</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-149400</v>
+        <v>-142000</v>
       </c>
       <c r="E35" s="3">
-        <v>-124200</v>
+        <v>-118100</v>
       </c>
       <c r="F35" s="3">
-        <v>-83800</v>
+        <v>-79700</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>165600</v>
+        <v>157500</v>
       </c>
       <c r="E41" s="3">
-        <v>140900</v>
+        <v>134000</v>
       </c>
       <c r="F41" s="3">
-        <v>158600</v>
+        <v>150800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43900</v>
+        <v>41700</v>
       </c>
       <c r="E42" s="3">
-        <v>43600</v>
+        <v>41500</v>
       </c>
       <c r="F42" s="3">
-        <v>43900</v>
+        <v>41800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16200</v>
+        <v>15400</v>
       </c>
       <c r="E43" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="F43" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17400</v>
+        <v>16500</v>
       </c>
       <c r="E44" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="E45" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F45" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>252500</v>
+        <v>240200</v>
       </c>
       <c r="E46" s="3">
-        <v>208300</v>
+        <v>198100</v>
       </c>
       <c r="F46" s="3">
-        <v>209300</v>
+        <v>199100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E47" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F47" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32500</v>
+        <v>30900</v>
       </c>
       <c r="E48" s="3">
-        <v>31300</v>
+        <v>29700</v>
       </c>
       <c r="F48" s="3">
-        <v>18400</v>
+        <v>17500</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="E49" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="E52" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="F52" s="3">
         <v>1300</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>303300</v>
+        <v>288500</v>
       </c>
       <c r="E54" s="3">
-        <v>258500</v>
+        <v>245800</v>
       </c>
       <c r="F54" s="3">
-        <v>234600</v>
+        <v>223100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="E57" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="F57" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E58" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F58" s="3">
         <v>1100</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37400</v>
+        <v>35600</v>
       </c>
       <c r="E59" s="3">
-        <v>39700</v>
+        <v>37800</v>
       </c>
       <c r="F59" s="3">
-        <v>19100</v>
+        <v>18100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49000</v>
+        <v>46600</v>
       </c>
       <c r="E60" s="3">
-        <v>52100</v>
+        <v>49600</v>
       </c>
       <c r="F60" s="3">
-        <v>28600</v>
+        <v>27200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>113300</v>
+        <v>107800</v>
       </c>
       <c r="E61" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="F61" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E62" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="F62" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>167200</v>
+        <v>159000</v>
       </c>
       <c r="E66" s="3">
-        <v>78100</v>
+        <v>74300</v>
       </c>
       <c r="F66" s="3">
-        <v>52300</v>
+        <v>49800</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-485300</v>
+        <v>-461600</v>
       </c>
       <c r="E72" s="3">
-        <v>-336000</v>
+        <v>-319500</v>
       </c>
       <c r="F72" s="3">
-        <v>-211800</v>
+        <v>-201400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>136100</v>
+        <v>129400</v>
       </c>
       <c r="E76" s="3">
-        <v>180300</v>
+        <v>171500</v>
       </c>
       <c r="F76" s="3">
-        <v>182300</v>
+        <v>173400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-149400</v>
+        <v>-142000</v>
       </c>
       <c r="E81" s="3">
-        <v>-124200</v>
+        <v>-118100</v>
       </c>
       <c r="F81" s="3">
-        <v>-83800</v>
+        <v>-79700</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="E83" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-177800</v>
+        <v>-169100</v>
       </c>
       <c r="E89" s="3">
-        <v>-101000</v>
+        <v>-96100</v>
       </c>
       <c r="F89" s="3">
-        <v>-60100</v>
+        <v>-57100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="E94" s="3">
-        <v>-28900</v>
+        <v>-27500</v>
       </c>
       <c r="F94" s="3">
-        <v>-7600</v>
+        <v>-7200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>195500</v>
+        <v>185900</v>
       </c>
       <c r="E100" s="3">
-        <v>111600</v>
+        <v>106200</v>
       </c>
       <c r="F100" s="3">
-        <v>98900</v>
+        <v>94100</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="E101" s="3">
         <v>500</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24800</v>
+        <v>23600</v>
       </c>
       <c r="E102" s="3">
-        <v>-17700</v>
+        <v>-16900</v>
       </c>
       <c r="F102" s="3">
-        <v>32300</v>
+        <v>30800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ZEAL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZEAL_YR_FIN.xlsx
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>40800</v>
+        <v>39200</v>
       </c>
       <c r="E8" s="3">
-        <v>49300</v>
+        <v>47400</v>
       </c>
       <c r="F8" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16600</v>
+        <v>15900</v>
       </c>
       <c r="E9" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24200</v>
+        <v>23300</v>
       </c>
       <c r="E10" s="3">
-        <v>36700</v>
+        <v>35200</v>
       </c>
       <c r="F10" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>77800</v>
+        <v>74800</v>
       </c>
       <c r="E12" s="3">
-        <v>81300</v>
+        <v>78100</v>
       </c>
       <c r="F12" s="3">
-        <v>76000</v>
+        <v>73000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>1300</v>
       </c>
       <c r="F15" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>187600</v>
+        <v>180400</v>
       </c>
       <c r="E17" s="3">
-        <v>159800</v>
+        <v>153600</v>
       </c>
       <c r="F17" s="3">
-        <v>87800</v>
+        <v>84400</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-146800</v>
+        <v>-141100</v>
       </c>
       <c r="E18" s="3">
-        <v>-110500</v>
+        <v>-106300</v>
       </c>
       <c r="F18" s="3">
-        <v>-82000</v>
+        <v>-78800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E20" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="F20" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-137000</v>
+        <v>-131800</v>
       </c>
       <c r="E21" s="3">
-        <v>-110700</v>
+        <v>-106500</v>
       </c>
       <c r="F21" s="3">
-        <v>-77500</v>
+        <v>-74600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-143300</v>
+        <v>-137700</v>
       </c>
       <c r="E23" s="3">
-        <v>-117100</v>
+        <v>-112600</v>
       </c>
       <c r="F23" s="3">
-        <v>-80500</v>
+        <v>-77300</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1102,7 +1102,7 @@
         <v>-1200</v>
       </c>
       <c r="E24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F24" s="3">
         <v>-700</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-142000</v>
+        <v>-136500</v>
       </c>
       <c r="E26" s="3">
-        <v>-118100</v>
+        <v>-113600</v>
       </c>
       <c r="F26" s="3">
-        <v>-79700</v>
+        <v>-76600</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-142000</v>
+        <v>-136500</v>
       </c>
       <c r="E27" s="3">
-        <v>-118100</v>
+        <v>-113600</v>
       </c>
       <c r="F27" s="3">
-        <v>-79700</v>
+        <v>-76600</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="E32" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="F32" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-142000</v>
+        <v>-136500</v>
       </c>
       <c r="E33" s="3">
-        <v>-118100</v>
+        <v>-113600</v>
       </c>
       <c r="F33" s="3">
-        <v>-79700</v>
+        <v>-76600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-142000</v>
+        <v>-136500</v>
       </c>
       <c r="E35" s="3">
-        <v>-118100</v>
+        <v>-113600</v>
       </c>
       <c r="F35" s="3">
-        <v>-79700</v>
+        <v>-76600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>157500</v>
+        <v>151400</v>
       </c>
       <c r="E41" s="3">
-        <v>134000</v>
+        <v>128800</v>
       </c>
       <c r="F41" s="3">
-        <v>150800</v>
+        <v>145000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>41700</v>
+        <v>40100</v>
       </c>
       <c r="E42" s="3">
-        <v>41500</v>
+        <v>39900</v>
       </c>
       <c r="F42" s="3">
-        <v>41800</v>
+        <v>40200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15400</v>
+        <v>14800</v>
       </c>
       <c r="E43" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="F43" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16500</v>
+        <v>15900</v>
       </c>
       <c r="E44" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="E45" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F45" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>240200</v>
+        <v>230900</v>
       </c>
       <c r="E46" s="3">
-        <v>198100</v>
+        <v>190400</v>
       </c>
       <c r="F46" s="3">
-        <v>199100</v>
+        <v>191400</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E47" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F47" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30900</v>
+        <v>29700</v>
       </c>
       <c r="E48" s="3">
-        <v>29700</v>
+        <v>28600</v>
       </c>
       <c r="F48" s="3">
-        <v>17500</v>
+        <v>16800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="E49" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="E52" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="F52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>288500</v>
+        <v>277300</v>
       </c>
       <c r="E54" s="3">
-        <v>245800</v>
+        <v>236300</v>
       </c>
       <c r="F54" s="3">
-        <v>223100</v>
+        <v>214500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="E57" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F57" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35600</v>
+        <v>34200</v>
       </c>
       <c r="E59" s="3">
-        <v>37800</v>
+        <v>36300</v>
       </c>
       <c r="F59" s="3">
-        <v>18100</v>
+        <v>17400</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46600</v>
+        <v>44800</v>
       </c>
       <c r="E60" s="3">
-        <v>49600</v>
+        <v>47600</v>
       </c>
       <c r="F60" s="3">
-        <v>27200</v>
+        <v>26200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>107800</v>
+        <v>103600</v>
       </c>
       <c r="E61" s="3">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="F61" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E62" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="F62" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>159000</v>
+        <v>152900</v>
       </c>
       <c r="E66" s="3">
-        <v>74300</v>
+        <v>71400</v>
       </c>
       <c r="F66" s="3">
-        <v>49800</v>
+        <v>47900</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-461600</v>
+        <v>-443700</v>
       </c>
       <c r="E72" s="3">
-        <v>-319500</v>
+        <v>-307100</v>
       </c>
       <c r="F72" s="3">
-        <v>-201400</v>
+        <v>-193600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>129400</v>
+        <v>124400</v>
       </c>
       <c r="E76" s="3">
-        <v>171500</v>
+        <v>164900</v>
       </c>
       <c r="F76" s="3">
-        <v>173400</v>
+        <v>166700</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-142000</v>
+        <v>-136500</v>
       </c>
       <c r="E81" s="3">
-        <v>-118100</v>
+        <v>-113600</v>
       </c>
       <c r="F81" s="3">
-        <v>-79700</v>
+        <v>-76600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="E83" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="F83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-169100</v>
+        <v>-162500</v>
       </c>
       <c r="E89" s="3">
-        <v>-96100</v>
+        <v>-92400</v>
       </c>
       <c r="F89" s="3">
-        <v>-57100</v>
+        <v>-54900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E94" s="3">
-        <v>-27500</v>
+        <v>-26400</v>
       </c>
       <c r="F94" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>185900</v>
+        <v>178700</v>
       </c>
       <c r="E100" s="3">
-        <v>106200</v>
+        <v>102000</v>
       </c>
       <c r="F100" s="3">
-        <v>94100</v>
+        <v>90500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="E101" s="3">
         <v>500</v>
       </c>
       <c r="F101" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23600</v>
+        <v>22600</v>
       </c>
       <c r="E102" s="3">
-        <v>-16900</v>
+        <v>-16200</v>
       </c>
       <c r="F102" s="3">
-        <v>30800</v>
+        <v>29600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
